--- a/Base.xlsx
+++ b/Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ynurmj5e/Developer/Python/Ranking/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ynurmj5e/GitHub/ecsite_ranking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1202D9DF-78EA-8547-92C1-A57C5B30DF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B39F4B-664D-5044-BF4A-C6821DDCB169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="2240" windowWidth="32400" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="32400" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>対象URL</t>
-  </si>
-  <si>
-    <t>https://shopping.yahoo.co.jp/categoryranking/38735/list?sc_i=shp_pc_cateranking_nrwcgt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>トップ</t>
   </si>
@@ -152,6 +146,10 @@
   </si>
   <si>
     <t>30位</t>
+  </si>
+  <si>
+    <t>カテゴリー／ジャンルコード</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -165,19 +163,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -198,8 +183,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +219,14 @@
         <fgColor rgb="FF2F929A"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -252,11 +256,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,29 +312,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,366 +659,367 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10">
+        <v>5301</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1"/>
     <row r="4" spans="2:7" ht="17.25" customHeight="1"/>
     <row r="5" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="2:7" ht="24" customHeight="1">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:7" ht="17.25" customHeight="1"/>
     <row r="8" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8" t="s">
+    </row>
+    <row r="9" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B9" s="9" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B10" s="9" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B11" s="9" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B12" s="9" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B13" s="9" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B14" s="9" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B15" s="9" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B16" s="9" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B17" s="9" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B18" s="9" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B19" s="9" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B20" s="9" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B21" s="9" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B22" s="9" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B23" s="9" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B24" s="9" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" ht="23.25" customHeight="1">
+      <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B25" s="9" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B26" s="9" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B27" s="9" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B28" s="9" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B29" s="9" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B30" s="9" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B31" s="9" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B32" s="9" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B33" s="9" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B34" s="9" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B35" s="9" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B36" s="9" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:7" ht="22.5" customHeight="1">
+      <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B37" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="2:7" ht="22.5" customHeight="1">
-      <c r="B38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>